--- a/pred_ohlcv/54/2019-10-17 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-17 LOOM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C2" t="n">
         <v>26.2</v>
@@ -417,15 +422,18 @@
         <v>26.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F2" t="n">
-        <v>7019</v>
+        <v>92995.0414</v>
       </c>
       <c r="G2" t="n">
-        <v>26.02999999999998</v>
+        <v>26.02499999999998</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>26.2</v>
       </c>
       <c r="F3" t="n">
-        <v>7377.4427</v>
+        <v>7019</v>
       </c>
       <c r="G3" t="n">
-        <v>26.03666666666665</v>
+        <v>26.02999999999998</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>26.2</v>
       </c>
       <c r="C4" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D4" t="n">
         <v>26.2</v>
       </c>
       <c r="E4" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F4" t="n">
-        <v>49449.2358</v>
+        <v>7377.4427</v>
       </c>
       <c r="G4" t="n">
-        <v>26.03833333333332</v>
+        <v>26.03666666666665</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F5" t="n">
-        <v>7604.8484</v>
+        <v>49449.2358</v>
       </c>
       <c r="G5" t="n">
-        <v>26.04166666666665</v>
+        <v>26.03833333333332</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>1657.1293</v>
+        <v>7604.8484</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04666666666665</v>
+        <v>26.04166666666665</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>26.1</v>
       </c>
       <c r="F7" t="n">
-        <v>50837.2466</v>
+        <v>1657.1293</v>
       </c>
       <c r="G7" t="n">
-        <v>26.05166666666665</v>
+        <v>26.04666666666665</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E8" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F8" t="n">
-        <v>2579.6772</v>
+        <v>50837.2466</v>
       </c>
       <c r="G8" t="n">
-        <v>26.06333333333332</v>
+        <v>26.05166666666665</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C9" t="n">
         <v>26.2</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E9" t="n">
         <v>26.2</v>
       </c>
       <c r="F9" t="n">
-        <v>266702.0166</v>
+        <v>2579.6772</v>
       </c>
       <c r="G9" t="n">
-        <v>26.07333333333332</v>
+        <v>26.06333333333332</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C10" t="n">
         <v>26.2</v>
       </c>
       <c r="D10" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="E10" t="n">
         <v>26.2</v>
       </c>
       <c r="F10" t="n">
-        <v>16913.0534</v>
+        <v>266702.0166</v>
       </c>
       <c r="G10" t="n">
-        <v>26.07833333333332</v>
+        <v>26.07333333333332</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>26.2</v>
       </c>
       <c r="F11" t="n">
-        <v>16457.8467</v>
+        <v>16913.0534</v>
       </c>
       <c r="G11" t="n">
-        <v>26.08333333333332</v>
+        <v>26.07833333333332</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>16457.8467</v>
       </c>
       <c r="G12" t="n">
-        <v>26.09166666666665</v>
+        <v>26.08333333333332</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E13" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="F13" t="n">
-        <v>3772.1894</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>26.09499999999998</v>
+        <v>26.09166666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>26.2</v>
       </c>
       <c r="F14" t="n">
-        <v>6888.0424</v>
+        <v>3772.1894</v>
       </c>
       <c r="G14" t="n">
-        <v>26.09833333333332</v>
+        <v>26.09499999999998</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>26.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1289.9176</v>
+        <v>6888.0424</v>
       </c>
       <c r="G15" t="n">
-        <v>26.10166666666665</v>
+        <v>26.09833333333332</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>26.2</v>
       </c>
       <c r="F16" t="n">
-        <v>4401.7891</v>
+        <v>1289.9176</v>
       </c>
       <c r="G16" t="n">
-        <v>26.10833333333332</v>
+        <v>26.10166666666665</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E17" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F17" t="n">
-        <v>13988.0292</v>
+        <v>4401.7891</v>
       </c>
       <c r="G17" t="n">
-        <v>26.11333333333332</v>
+        <v>26.10833333333332</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F18" t="n">
-        <v>7900</v>
+        <v>13988.0292</v>
       </c>
       <c r="G18" t="n">
-        <v>26.11666666666666</v>
+        <v>26.11333333333332</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>992.8325</v>
+        <v>7900</v>
       </c>
       <c r="G19" t="n">
-        <v>26.12166666666666</v>
+        <v>26.11666666666666</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>26.1</v>
       </c>
       <c r="F20" t="n">
-        <v>5762.4328</v>
+        <v>992.8325</v>
       </c>
       <c r="G20" t="n">
-        <v>26.12666666666665</v>
+        <v>26.12166666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>26.1</v>
       </c>
       <c r="F21" t="n">
-        <v>3244.7347</v>
+        <v>5762.4328</v>
       </c>
       <c r="G21" t="n">
-        <v>26.13333333333332</v>
+        <v>26.12666666666665</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>26.1</v>
       </c>
       <c r="F22" t="n">
-        <v>30472.2393</v>
+        <v>3244.7347</v>
       </c>
       <c r="G22" t="n">
-        <v>26.13999999999998</v>
+        <v>26.13333333333332</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>26.1</v>
       </c>
       <c r="F23" t="n">
-        <v>3287.2598</v>
+        <v>30472.2393</v>
       </c>
       <c r="G23" t="n">
-        <v>26.14666666666665</v>
+        <v>26.13999999999998</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>26.1</v>
       </c>
       <c r="F24" t="n">
-        <v>769.0613</v>
+        <v>3287.2598</v>
       </c>
       <c r="G24" t="n">
-        <v>26.15333333333331</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E25" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>769.0613</v>
       </c>
       <c r="G25" t="n">
-        <v>26.15999999999998</v>
+        <v>26.15333333333331</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>26.2</v>
       </c>
       <c r="F26" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>26.16666666666665</v>
+        <v>26.15999999999998</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>26.2</v>
       </c>
       <c r="F27" t="n">
-        <v>76.53870000000001</v>
+        <v>132</v>
       </c>
       <c r="G27" t="n">
-        <v>26.17333333333331</v>
+        <v>26.16666666666665</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E28" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F28" t="n">
-        <v>2212.4251</v>
+        <v>76.53870000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>26.17833333333332</v>
+        <v>26.17333333333331</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C29" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D29" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F29" t="n">
-        <v>23361.1284</v>
+        <v>2212.4251</v>
       </c>
       <c r="G29" t="n">
-        <v>26.18166666666665</v>
+        <v>26.17833333333332</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D30" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E30" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>7816</v>
+        <v>23361.1284</v>
       </c>
       <c r="G30" t="n">
-        <v>26.18333333333332</v>
+        <v>26.18166666666665</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C31" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D31" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E31" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F31" t="n">
-        <v>3550.3458</v>
+        <v>7816</v>
       </c>
       <c r="G31" t="n">
-        <v>26.18666666666665</v>
+        <v>26.18333333333332</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>26.2</v>
       </c>
       <c r="F32" t="n">
-        <v>1570</v>
+        <v>3550.3458</v>
       </c>
       <c r="G32" t="n">
-        <v>26.18999999999998</v>
+        <v>26.18666666666665</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>26.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3657.5</v>
+        <v>1570</v>
       </c>
       <c r="G33" t="n">
         <v>26.18999999999998</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C34" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E34" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F34" t="n">
-        <v>17200</v>
+        <v>3657.5</v>
       </c>
       <c r="G34" t="n">
-        <v>26.18333333333332</v>
+        <v>26.18999999999998</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="D35" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>17200</v>
       </c>
       <c r="G35" t="n">
         <v>26.18333333333332</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="C36" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="D36" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="E36" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="F36" t="n">
-        <v>46300</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>26.17499999999999</v>
+        <v>26.18333333333332</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1327,15 +1437,18 @@
         <v>25.9</v>
       </c>
       <c r="E37" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="F37" t="n">
-        <v>845.2079</v>
+        <v>46300</v>
       </c>
       <c r="G37" t="n">
-        <v>26.16833333333332</v>
+        <v>26.17499999999999</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>25.9</v>
       </c>
       <c r="F38" t="n">
-        <v>482.0125</v>
+        <v>845.2079</v>
       </c>
       <c r="G38" t="n">
-        <v>26.16499999999999</v>
+        <v>26.16833333333332</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>25.9</v>
       </c>
       <c r="C39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="D39" t="n">
         <v>25.9</v>
       </c>
       <c r="E39" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="F39" t="n">
-        <v>12594.7547</v>
+        <v>482.0125</v>
       </c>
       <c r="G39" t="n">
-        <v>26.15833333333332</v>
+        <v>26.16499999999999</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="C40" t="n">
         <v>25.8</v>
       </c>
       <c r="D40" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E40" t="n">
         <v>25.8</v>
       </c>
       <c r="F40" t="n">
-        <v>90484.5039</v>
+        <v>12594.7547</v>
       </c>
       <c r="G40" t="n">
-        <v>26.15166666666665</v>
+        <v>26.15833333333332</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C41" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D41" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E41" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>90484.5039</v>
       </c>
       <c r="G41" t="n">
         <v>26.15166666666665</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>26.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
         <v>26.15166666666665</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>26.2</v>
       </c>
       <c r="F43" t="n">
-        <v>124742.29</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>26.15333333333332</v>
+        <v>26.15166666666665</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C44" t="n">
         <v>26.2</v>
@@ -1509,15 +1640,18 @@
         <v>26.2</v>
       </c>
       <c r="E44" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F44" t="n">
-        <v>113920.477</v>
+        <v>124742.29</v>
       </c>
       <c r="G44" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15333333333332</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D45" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E45" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>113920.477</v>
       </c>
       <c r="G45" t="n">
-        <v>26.15833333333332</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C46" t="n">
         <v>26.3</v>
       </c>
-      <c r="C46" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D46" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E46" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="F46" t="n">
-        <v>81518.26489999999</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
-        <v>26.14833333333332</v>
+        <v>26.15833333333332</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C47" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="D47" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E47" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>81518.26489999999</v>
       </c>
       <c r="G47" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14833333333332</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>26.2</v>
       </c>
       <c r="C48" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D48" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E48" t="n">
         <v>26.2</v>
       </c>
       <c r="F48" t="n">
-        <v>9000</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>26.14333333333332</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C49" t="n">
         <v>26.3</v>
       </c>
-      <c r="C49" t="n">
-        <v>26.4</v>
-      </c>
       <c r="D49" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E49" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F49" t="n">
-        <v>258</v>
+        <v>9000</v>
       </c>
       <c r="G49" t="n">
-        <v>26.14666666666665</v>
+        <v>26.14333333333332</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="C50" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D50" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E50" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F50" t="n">
-        <v>2605.5942</v>
+        <v>258</v>
       </c>
       <c r="G50" t="n">
         <v>26.14666666666665</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="C51" t="n">
         <v>26.2</v>
       </c>
       <c r="D51" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="E51" t="n">
         <v>26.2</v>
       </c>
       <c r="F51" t="n">
-        <v>43463.6553</v>
+        <v>2605.5942</v>
       </c>
       <c r="G51" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C52" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D52" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="E52" t="n">
         <v>26.2</v>
       </c>
       <c r="F52" t="n">
-        <v>25269.8763</v>
+        <v>43463.6553</v>
       </c>
       <c r="G52" t="n">
-        <v>26.14666666666665</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C53" t="n">
         <v>26.3</v>
@@ -1743,15 +1901,18 @@
         <v>26.3</v>
       </c>
       <c r="E53" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3583.4942</v>
+        <v>25269.8763</v>
       </c>
       <c r="G53" t="n">
-        <v>26.14499999999999</v>
+        <v>26.14666666666665</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1763,21 +1924,24 @@
         <v>26.3</v>
       </c>
       <c r="C54" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="D54" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="E54" t="n">
         <v>26.3</v>
       </c>
       <c r="F54" t="n">
-        <v>25176.3238</v>
+        <v>3583.4942</v>
       </c>
       <c r="G54" t="n">
-        <v>26.15333333333332</v>
+        <v>26.14499999999999</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="C55" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="D55" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="E55" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="F55" t="n">
-        <v>12.456</v>
+        <v>25176.3238</v>
       </c>
       <c r="G55" t="n">
-        <v>26.15666666666665</v>
+        <v>26.15333333333332</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C56" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="D56" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E56" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="F56" t="n">
-        <v>157674.7586</v>
+        <v>12.456</v>
       </c>
       <c r="G56" t="n">
         <v>26.15666666666665</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C57" t="n">
         <v>26.1</v>
       </c>
       <c r="D57" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="E57" t="n">
         <v>26.1</v>
       </c>
       <c r="F57" t="n">
-        <v>333.867</v>
+        <v>157674.7586</v>
       </c>
       <c r="G57" t="n">
         <v>26.15666666666665</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="D58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="E58" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>333.867</v>
       </c>
       <c r="G58" t="n">
-        <v>26.15999999999999</v>
+        <v>26.15666666666665</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1899,15 +2075,18 @@
         <v>26.4</v>
       </c>
       <c r="E59" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="F59" t="n">
-        <v>88032.87880000001</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>26.16333333333332</v>
+        <v>26.15999999999999</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="C60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="E60" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="F60" t="n">
-        <v>27958.3091</v>
+        <v>88032.87880000001</v>
       </c>
       <c r="G60" t="n">
-        <v>26.16499999999999</v>
+        <v>26.16333333333332</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>26.2</v>
       </c>
       <c r="F61" t="n">
-        <v>27958.309</v>
+        <v>27958.3091</v>
       </c>
       <c r="G61" t="n">
         <v>26.16499999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>26.2</v>
       </c>
       <c r="F62" t="n">
-        <v>17555.8039</v>
+        <v>27958.309</v>
       </c>
       <c r="G62" t="n">
         <v>26.16499999999999</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>26.2</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>17555.8039</v>
       </c>
       <c r="G63" t="n">
         <v>26.16499999999999</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F64" t="n">
-        <v>52567.4118</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>26.16333333333332</v>
+        <v>26.16499999999999</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F65" t="n">
-        <v>11804.5846</v>
+        <v>52567.4118</v>
       </c>
       <c r="G65" t="n">
-        <v>26.16666666666666</v>
+        <v>26.16333333333332</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>26.2</v>
       </c>
       <c r="F66" t="n">
-        <v>10581.8345</v>
+        <v>11804.5846</v>
       </c>
       <c r="G66" t="n">
-        <v>26.16833333333333</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C67" t="n">
         <v>26.2</v>
@@ -2107,15 +2307,18 @@
         <v>26.2</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F67" t="n">
-        <v>4168.7808</v>
+        <v>10581.8345</v>
       </c>
       <c r="G67" t="n">
-        <v>26.17</v>
+        <v>26.16833333333333</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C68" t="n">
         <v>26.2</v>
@@ -2133,15 +2336,18 @@
         <v>26.2</v>
       </c>
       <c r="E68" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12889.2372</v>
+        <v>4168.7808</v>
       </c>
       <c r="G68" t="n">
         <v>26.17</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="D69" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E69" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F69" t="n">
-        <v>67979.9651</v>
+        <v>12889.2372</v>
       </c>
       <c r="G69" t="n">
-        <v>26.165</v>
+        <v>26.17</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C70" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D70" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E70" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F70" t="n">
-        <v>7115.8695</v>
+        <v>67979.9651</v>
       </c>
       <c r="G70" t="n">
         <v>26.165</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>26.2</v>
       </c>
       <c r="F71" t="n">
-        <v>33140.9999</v>
+        <v>7115.8695</v>
       </c>
       <c r="G71" t="n">
         <v>26.165</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="C72" t="n">
         <v>26.2</v>
@@ -2237,15 +2452,18 @@
         <v>26.2</v>
       </c>
       <c r="E72" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="F72" t="n">
-        <v>270090.57</v>
+        <v>33140.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>26.16166666666667</v>
+        <v>26.165</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C73" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D73" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E73" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F73" t="n">
-        <v>3823</v>
+        <v>270090.57</v>
       </c>
       <c r="G73" t="n">
-        <v>26.15999999999999</v>
+        <v>26.16166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="C74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="D74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="E74" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="F74" t="n">
-        <v>9975.5</v>
+        <v>3823</v>
       </c>
       <c r="G74" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15999999999999</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="D75" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="E75" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="F75" t="n">
-        <v>33945.879</v>
+        <v>9975.5</v>
       </c>
       <c r="G75" t="n">
         <v>26.15499999999999</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>26.1</v>
       </c>
       <c r="C76" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="D76" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E76" t="n">
         <v>26.1</v>
       </c>
       <c r="F76" t="n">
-        <v>19066.7553</v>
+        <v>33945.879</v>
       </c>
       <c r="G76" t="n">
-        <v>26.15333333333333</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="D77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E77" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="F77" t="n">
-        <v>10227.6675</v>
+        <v>19066.7553</v>
       </c>
       <c r="G77" t="n">
-        <v>26.15499999999999</v>
+        <v>26.15333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D78" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="E78" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="F78" t="n">
-        <v>27431</v>
+        <v>10227.6675</v>
       </c>
       <c r="G78" t="n">
         <v>26.15499999999999</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C79" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="E79" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F79" t="n">
-        <v>5543</v>
+        <v>27431</v>
       </c>
       <c r="G79" t="n">
-        <v>26.15833333333333</v>
+        <v>26.15499999999999</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="D80" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="E80" t="n">
-        <v>26</v>
+        <v>26.3</v>
       </c>
       <c r="F80" t="n">
-        <v>16870.7708</v>
+        <v>5543</v>
       </c>
       <c r="G80" t="n">
-        <v>26.15666666666666</v>
+        <v>26.15833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="C81" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D81" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="E81" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F81" t="n">
-        <v>11127.222</v>
+        <v>16870.7708</v>
       </c>
       <c r="G81" t="n">
-        <v>26.15833333333333</v>
+        <v>26.15666666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>26.2</v>
       </c>
       <c r="F82" t="n">
-        <v>9000</v>
+        <v>11127.222</v>
       </c>
       <c r="G82" t="n">
-        <v>26.16</v>
+        <v>26.15833333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="C83" t="n">
         <v>26.2</v>
@@ -2523,15 +2771,18 @@
         <v>26.2</v>
       </c>
       <c r="E83" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="F83" t="n">
-        <v>32131.8581</v>
+        <v>9000</v>
       </c>
       <c r="G83" t="n">
-        <v>26.16166666666667</v>
+        <v>26.16</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="D84" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="E84" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="F84" t="n">
-        <v>20164.3474</v>
+        <v>32131.8581</v>
       </c>
       <c r="G84" t="n">
-        <v>26.16000000000001</v>
+        <v>26.16166666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="C85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="D85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="E85" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>20164.3474</v>
       </c>
       <c r="G85" t="n">
         <v>26.16000000000001</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>26.2</v>
       </c>
       <c r="F86" t="n">
-        <v>14415.601</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
         <v>26.16000000000001</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>26.2</v>
       </c>
       <c r="F87" t="n">
-        <v>1853.4351</v>
+        <v>14415.601</v>
       </c>
       <c r="G87" t="n">
         <v>26.16000000000001</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>26.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2319</v>
+        <v>1853.4351</v>
       </c>
       <c r="G88" t="n">
-        <v>26.16166666666668</v>
+        <v>26.16000000000001</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>26.2</v>
       </c>
       <c r="F89" t="n">
-        <v>18702.5995</v>
+        <v>2319</v>
       </c>
       <c r="G89" t="n">
         <v>26.16166666666668</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>26.2</v>
       </c>
       <c r="F90" t="n">
-        <v>5984.2766</v>
+        <v>18702.5995</v>
       </c>
       <c r="G90" t="n">
-        <v>26.16333333333334</v>
+        <v>26.16166666666668</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2725,21 +2997,24 @@
         <v>26.2</v>
       </c>
       <c r="C91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="D91" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E91" t="n">
         <v>26.2</v>
       </c>
       <c r="F91" t="n">
-        <v>10800</v>
+        <v>5984.2766</v>
       </c>
       <c r="G91" t="n">
-        <v>26.16500000000001</v>
+        <v>26.16333333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +3023,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="C92" t="n">
         <v>26.3</v>
@@ -2757,15 +3032,18 @@
         <v>26.3</v>
       </c>
       <c r="E92" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="F92" t="n">
-        <v>11733.057</v>
+        <v>10800</v>
       </c>
       <c r="G92" t="n">
-        <v>26.16666666666667</v>
+        <v>26.16500000000001</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2777,21 +3055,24 @@
         <v>26.3</v>
       </c>
       <c r="C93" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="D93" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="E93" t="n">
         <v>26.3</v>
       </c>
       <c r="F93" t="n">
-        <v>120730.1447</v>
+        <v>11733.057</v>
       </c>
       <c r="G93" t="n">
-        <v>26.17000000000001</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C94" t="n">
         <v>26.4</v>
       </c>
-      <c r="C94" t="n">
-        <v>26.5</v>
-      </c>
       <c r="D94" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="E94" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="F94" t="n">
-        <v>132168.6644</v>
+        <v>120730.1447</v>
       </c>
       <c r="G94" t="n">
-        <v>26.18000000000001</v>
+        <v>26.17000000000001</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="C95" t="n">
         <v>26.5</v>
       </c>
       <c r="D95" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="E95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="F95" t="n">
-        <v>26149.6506</v>
+        <v>132168.6644</v>
       </c>
       <c r="G95" t="n">
-        <v>26.18333333333334</v>
+        <v>26.18000000000001</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="C96" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D96" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E96" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F96" t="n">
-        <v>21942.4207</v>
+        <v>26149.6506</v>
       </c>
       <c r="G96" t="n">
-        <v>26.19666666666667</v>
+        <v>26.18333333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C97" t="n">
         <v>26.7</v>
       </c>
-      <c r="C97" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D97" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="E97" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F97" t="n">
-        <v>93202.1786</v>
+        <v>21942.4207</v>
       </c>
       <c r="G97" t="n">
-        <v>26.21333333333334</v>
+        <v>26.19666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C98" t="n">
         <v>26.9</v>
       </c>
-      <c r="C98" t="n">
-        <v>27.2</v>
-      </c>
       <c r="D98" t="n">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="E98" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F98" t="n">
-        <v>93328.1542</v>
+        <v>93202.1786</v>
       </c>
       <c r="G98" t="n">
-        <v>26.23500000000001</v>
+        <v>26.21333333333334</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="C99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="D99" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="E99" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>93328.1542</v>
       </c>
       <c r="G99" t="n">
-        <v>26.26000000000001</v>
+        <v>26.23500000000001</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>27.3</v>
       </c>
       <c r="F100" t="n">
-        <v>24446.7444</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>26.28500000000001</v>
+        <v>26.26000000000001</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>27.3</v>
       </c>
       <c r="C101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D101" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="E101" t="n">
         <v>27.3</v>
       </c>
       <c r="F101" t="n">
-        <v>10626</v>
+        <v>24446.7444</v>
       </c>
       <c r="G101" t="n">
-        <v>26.30500000000001</v>
+        <v>26.28500000000001</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C102" t="n">
         <v>27.4</v>
@@ -3017,15 +3322,18 @@
         <v>27.4</v>
       </c>
       <c r="E102" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="F102" t="n">
-        <v>14041.0763</v>
+        <v>10626</v>
       </c>
       <c r="G102" t="n">
-        <v>26.32500000000001</v>
+        <v>26.30500000000001</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,13 +3354,16 @@
         <v>27.4</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>14041.0763</v>
       </c>
       <c r="G103" t="n">
-        <v>26.34500000000001</v>
+        <v>26.32500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3060,25 +3371,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E104" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F104" t="n">
-        <v>4439.5668</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>26.36666666666667</v>
+        <v>26.34500000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3098,13 +3412,16 @@
         <v>27.5</v>
       </c>
       <c r="F105" t="n">
-        <v>699.3454</v>
+        <v>4439.5668</v>
       </c>
       <c r="G105" t="n">
-        <v>26.38666666666667</v>
+        <v>26.36666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3112,7 +3429,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="C106" t="n">
         <v>27.5</v>
@@ -3121,15 +3438,18 @@
         <v>27.5</v>
       </c>
       <c r="E106" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F106" t="n">
-        <v>174803.4438</v>
+        <v>699.3454</v>
       </c>
       <c r="G106" t="n">
-        <v>26.41500000000001</v>
+        <v>26.38666666666667</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>27.6</v>
+        <v>27.2</v>
       </c>
       <c r="C107" t="n">
         <v>27.5</v>
       </c>
       <c r="D107" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E107" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="F107" t="n">
-        <v>24.779</v>
+        <v>174803.4438</v>
       </c>
       <c r="G107" t="n">
-        <v>26.43666666666667</v>
+        <v>26.41500000000001</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="C108" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="D108" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E108" t="n">
-        <v>27.2</v>
+        <v>27.5</v>
       </c>
       <c r="F108" t="n">
-        <v>125264.8699</v>
+        <v>24.779</v>
       </c>
       <c r="G108" t="n">
-        <v>26.45333333333334</v>
+        <v>26.43666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="C109" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="D109" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E109" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>125264.8699</v>
       </c>
       <c r="G109" t="n">
-        <v>26.47000000000001</v>
+        <v>26.45333333333334</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>27.4</v>
       </c>
       <c r="C110" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="D110" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="E110" t="n">
         <v>27.4</v>
       </c>
       <c r="F110" t="n">
-        <v>29100</v>
+        <v>11</v>
       </c>
       <c r="G110" t="n">
-        <v>26.49166666666667</v>
+        <v>26.47000000000001</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>27.4</v>
       </c>
       <c r="F111" t="n">
-        <v>6154.7007</v>
+        <v>29100</v>
       </c>
       <c r="G111" t="n">
-        <v>26.51333333333334</v>
+        <v>26.49166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C112" t="n">
         <v>27.5</v>
@@ -3277,15 +3612,18 @@
         <v>27.5</v>
       </c>
       <c r="E112" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F112" t="n">
-        <v>8900</v>
+        <v>6154.7007</v>
       </c>
       <c r="G112" t="n">
-        <v>26.53333333333334</v>
+        <v>26.51333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>27.5</v>
       </c>
       <c r="F113" t="n">
-        <v>6132.4742</v>
+        <v>8900</v>
       </c>
       <c r="G113" t="n">
-        <v>26.55333333333334</v>
+        <v>26.53333333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="D114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="E114" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F114" t="n">
-        <v>48791.6762</v>
+        <v>6132.4742</v>
       </c>
       <c r="G114" t="n">
-        <v>26.56500000000001</v>
+        <v>26.55333333333334</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C115" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D115" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E115" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="F115" t="n">
-        <v>64070.0505</v>
+        <v>48791.6762</v>
       </c>
       <c r="G115" t="n">
-        <v>26.58333333333334</v>
+        <v>26.56500000000001</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C116" t="n">
         <v>27.6</v>
@@ -3384,12 +3731,15 @@
         <v>27.5</v>
       </c>
       <c r="F116" t="n">
-        <v>27765.6738</v>
+        <v>64070.0505</v>
       </c>
       <c r="G116" t="n">
-        <v>26.60833333333334</v>
+        <v>26.58333333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3407,15 +3757,18 @@
         <v>27.6</v>
       </c>
       <c r="E117" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F117" t="n">
-        <v>13347.7712</v>
+        <v>27765.6738</v>
       </c>
       <c r="G117" t="n">
-        <v>26.63333333333334</v>
+        <v>26.60833333333334</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="C118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E118" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F118" t="n">
-        <v>66993.10460000001</v>
+        <v>13347.7712</v>
       </c>
       <c r="G118" t="n">
-        <v>26.65500000000001</v>
+        <v>26.63333333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>27.7</v>
       </c>
       <c r="C119" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D119" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E119" t="n">
         <v>27.7</v>
       </c>
       <c r="F119" t="n">
-        <v>9464.0568</v>
+        <v>66993.10460000001</v>
       </c>
       <c r="G119" t="n">
-        <v>26.67833333333334</v>
+        <v>26.65500000000001</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C120" t="n">
         <v>27.8</v>
@@ -3485,15 +3844,18 @@
         <v>27.8</v>
       </c>
       <c r="E120" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F120" t="n">
-        <v>2232.6508</v>
+        <v>9464.0568</v>
       </c>
       <c r="G120" t="n">
-        <v>26.705</v>
+        <v>26.67833333333334</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="C121" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="D121" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.5</v>
+        <v>27.8</v>
       </c>
       <c r="F121" t="n">
-        <v>18000</v>
+        <v>2232.6508</v>
       </c>
       <c r="G121" t="n">
-        <v>26.72666666666667</v>
+        <v>26.705</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C122" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D122" t="n">
         <v>27.6</v>
       </c>
       <c r="E122" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F122" t="n">
-        <v>3779.5379</v>
+        <v>18000</v>
       </c>
       <c r="G122" t="n">
-        <v>26.75</v>
+        <v>26.72666666666667</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3922,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C123" t="n">
         <v>27.6</v>
@@ -3563,15 +3931,18 @@
         <v>27.6</v>
       </c>
       <c r="E123" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F123" t="n">
-        <v>2547.5543</v>
+        <v>3779.5379</v>
       </c>
       <c r="G123" t="n">
-        <v>26.77333333333333</v>
+        <v>26.75</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>27.6</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>2547.5543</v>
       </c>
       <c r="G124" t="n">
-        <v>26.8</v>
+        <v>26.77333333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E125" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F125" t="n">
-        <v>1562.7479</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>26.82166666666666</v>
+        <v>26.8</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +4009,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="C126" t="n">
         <v>27.5</v>
@@ -3641,15 +4018,18 @@
         <v>27.5</v>
       </c>
       <c r="E126" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F126" t="n">
-        <v>2196.936517090909</v>
+        <v>1562.7479</v>
       </c>
       <c r="G126" t="n">
-        <v>26.84333333333333</v>
+        <v>26.82166666666666</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3670,12 +4050,15 @@
         <v>27.4</v>
       </c>
       <c r="F127" t="n">
-        <v>10673.3906</v>
+        <v>2196.936517090909</v>
       </c>
       <c r="G127" t="n">
-        <v>26.86499999999999</v>
+        <v>26.84333333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C128" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="D128" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="E128" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F128" t="n">
-        <v>9049.4818</v>
+        <v>10673.3906</v>
       </c>
       <c r="G128" t="n">
-        <v>26.88833333333332</v>
+        <v>26.86499999999999</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="C129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="E129" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F129" t="n">
-        <v>631</v>
+        <v>9049.4818</v>
       </c>
       <c r="G129" t="n">
-        <v>26.91333333333332</v>
+        <v>26.88833333333332</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="C130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D130" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="E130" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F130" t="n">
-        <v>58373.1356</v>
+        <v>631</v>
       </c>
       <c r="G130" t="n">
-        <v>26.93666666666666</v>
+        <v>26.91333333333332</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +4154,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C131" t="n">
         <v>27.6</v>
@@ -3771,15 +4163,18 @@
         <v>27.6</v>
       </c>
       <c r="E131" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="F131" t="n">
-        <v>146300.3623</v>
+        <v>58373.1356</v>
       </c>
       <c r="G131" t="n">
-        <v>26.95999999999999</v>
+        <v>26.93666666666666</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3791,21 +4186,24 @@
         <v>27.6</v>
       </c>
       <c r="C132" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="D132" t="n">
         <v>27.6</v>
       </c>
       <c r="E132" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="F132" t="n">
-        <v>2010</v>
+        <v>146300.3623</v>
       </c>
       <c r="G132" t="n">
-        <v>26.97999999999999</v>
+        <v>26.95999999999999</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>27.6</v>
       </c>
       <c r="C133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D133" t="n">
         <v>27.6</v>
       </c>
       <c r="E133" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F133" t="n">
-        <v>67160.1375</v>
+        <v>2010</v>
       </c>
       <c r="G133" t="n">
-        <v>27.00499999999999</v>
+        <v>26.97999999999999</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3849,15 +4250,18 @@
         <v>27.6</v>
       </c>
       <c r="E134" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F134" t="n">
-        <v>6806.0581</v>
+        <v>67160.1375</v>
       </c>
       <c r="G134" t="n">
-        <v>27.03333333333332</v>
+        <v>27.00499999999999</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C135" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="D135" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="E135" t="n">
         <v>27.5</v>
       </c>
       <c r="F135" t="n">
-        <v>20436</v>
+        <v>6806.0581</v>
       </c>
       <c r="G135" t="n">
-        <v>27.05833333333332</v>
+        <v>27.03333333333332</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="C136" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D136" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E136" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="F136" t="n">
-        <v>849.7851000000001</v>
+        <v>20436</v>
       </c>
       <c r="G136" t="n">
-        <v>27.08333333333332</v>
+        <v>27.05833333333332</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="C137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="D137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="E137" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="F137" t="n">
-        <v>26877.8057</v>
+        <v>849.7851000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>27.10999999999998</v>
+        <v>27.08333333333332</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>27.8</v>
       </c>
       <c r="F138" t="n">
-        <v>7241.0071</v>
+        <v>26877.8057</v>
       </c>
       <c r="G138" t="n">
-        <v>27.13999999999998</v>
+        <v>27.10999999999998</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="E139" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F139" t="n">
-        <v>903.0546000000001</v>
+        <v>7241.0071</v>
       </c>
       <c r="G139" t="n">
-        <v>27.16333333333332</v>
+        <v>27.13999999999998</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="C140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="E140" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F140" t="n">
-        <v>18004.5255</v>
+        <v>903.0546000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>27.18999999999998</v>
+        <v>27.16333333333332</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>27.6</v>
       </c>
       <c r="F141" t="n">
-        <v>17000</v>
+        <v>18004.5255</v>
       </c>
       <c r="G141" t="n">
-        <v>27.21333333333331</v>
+        <v>27.18999999999998</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>27.6</v>
       </c>
       <c r="C142" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="D142" t="n">
         <v>27.6</v>
       </c>
       <c r="E142" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="F142" t="n">
-        <v>93069.4918</v>
+        <v>17000</v>
       </c>
       <c r="G142" t="n">
-        <v>27.23499999999998</v>
+        <v>27.21333333333331</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="C143" t="n">
         <v>27.5</v>
       </c>
       <c r="D143" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="E143" t="n">
         <v>27.5</v>
       </c>
       <c r="F143" t="n">
-        <v>20660.5077</v>
+        <v>93069.4918</v>
       </c>
       <c r="G143" t="n">
-        <v>27.25666666666665</v>
+        <v>27.23499999999998</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,541 +4534,24 @@
         <v>27.5</v>
       </c>
       <c r="C144" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="D144" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="E144" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="F144" t="n">
-        <v>269368.6388</v>
+        <v>20660.5077</v>
       </c>
       <c r="G144" t="n">
-        <v>27.28499999999998</v>
+        <v>27.25666666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E145" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F145" t="n">
-        <v>3767</v>
-      </c>
-      <c r="G145" t="n">
-        <v>27.30499999999998</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E146" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F146" t="n">
-        <v>18249.8813</v>
-      </c>
-      <c r="G146" t="n">
-        <v>27.32833333333331</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E147" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3611.1111</v>
-      </c>
-      <c r="G147" t="n">
-        <v>27.35166666666664</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F148" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G148" t="n">
-        <v>27.37166666666664</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="C149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1111.7205</v>
-      </c>
-      <c r="G149" t="n">
-        <v>27.39166666666664</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>28054.6875</v>
-      </c>
-      <c r="G150" t="n">
-        <v>27.41166666666664</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>623.0228</v>
-      </c>
-      <c r="G151" t="n">
-        <v>27.43333333333331</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F152" t="n">
-        <v>689.1529</v>
-      </c>
-      <c r="G152" t="n">
-        <v>27.45333333333331</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3133.0798</v>
-      </c>
-      <c r="G153" t="n">
-        <v>27.47333333333331</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E154" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>13781.1412</v>
-      </c>
-      <c r="G154" t="n">
-        <v>27.49166666666664</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>4900</v>
-      </c>
-      <c r="G155" t="n">
-        <v>27.51166666666664</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E156" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14500</v>
-      </c>
-      <c r="G156" t="n">
-        <v>27.52833333333331</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1349.0834</v>
-      </c>
-      <c r="G157" t="n">
-        <v>27.53833333333331</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>300</v>
-      </c>
-      <c r="G158" t="n">
-        <v>27.54666666666664</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E159" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3348.2628</v>
-      </c>
-      <c r="G159" t="n">
-        <v>27.55333333333331</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C160" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D160" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E160" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F160" t="n">
-        <v>19276.467</v>
-      </c>
-      <c r="G160" t="n">
-        <v>27.56333333333331</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E161" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F161" t="n">
-        <v>8241.843199999999</v>
-      </c>
-      <c r="G161" t="n">
-        <v>27.57166666666664</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E162" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1890.4308</v>
-      </c>
-      <c r="G162" t="n">
-        <v>27.57999999999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="C163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E163" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>27.58833333333331</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="E164" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1813.896</v>
-      </c>
-      <c r="G164" t="n">
-        <v>27.58999999999997</v>
-      </c>
-      <c r="H164" t="n">
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
